--- a/classfiers/chain/svm/nearmiss/chain-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/chain/svm/nearmiss/chain-svm-poly-nearmiss-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7777777777777779</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.36</v>
+        <v>0.4742857142857144</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.8277777777777778</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/svm/nearmiss/chain-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/chain/svm/nearmiss/chain-svm-poly-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="E2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.7199999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7371794871794872</v>
       </c>
     </row>
     <row r="4">
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7777777777777779</v>
+        <v>0.8141025641025641</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.7241758241758242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5128205128205129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4742857142857144</v>
+        <v>0.5589610136452242</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8277777777777778</v>
+        <v>0.8935897435897436</v>
       </c>
     </row>
   </sheetData>
